--- a/选取因子.xlsx
+++ b/选取因子.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>因子名称</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>指标释义</t>
+  </si>
+  <si>
+    <t>MKT_CAP_FLOAT</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>无（数值）</t>
+  </si>
+  <si>
+    <t>最新市值</t>
+  </si>
+  <si>
+    <t>MKT_CAP_FLOAT=mkt_cap_float_m</t>
   </si>
   <si>
     <t>ROE_G_q</t>
@@ -330,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -371,29 +386,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,39 +409,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +455,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -462,53 +471,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,37 +538,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,139 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,11 +743,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,20 +780,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,32 +821,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,161 +834,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,41 +998,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1335,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1372,324 +1390,342 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="156" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" ht="156" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="188" spans="1:6">
-      <c r="A3" s="5" t="s">
+    <row r="4" ht="188" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>15</v>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="172" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
+    <row r="5" ht="172" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" ht="78" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="110" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" ht="78" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" ht="110" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="110" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="110" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" ht="125" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="10" ht="110" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" ht="172" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
+    <row r="11" ht="125" spans="1:6">
+      <c r="A11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" ht="16" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" ht="172" spans="1:6">
+      <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" ht="47" spans="1:6">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="16" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="F13" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="14" ht="141" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7" t="s">
+    <row r="14" ht="47" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="15" ht="53" customHeight="1" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7" t="s">
+    <row r="15" ht="141" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" ht="134" customHeight="1" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7" t="s">
+    <row r="16" ht="53" customHeight="1" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="17" ht="47" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="s">
+    <row r="17" ht="134" customHeight="1" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="6" t="s">
         <v>74</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" ht="47" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
